--- a/REGULAR/CEO/MADRAZO, ALLAN PAUL.xlsx
+++ b/REGULAR/CEO/MADRAZO, ALLAN PAUL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="357">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1060,6 +1060,51 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(1-1-46)</t>
+  </si>
+  <si>
+    <t>11/3,21,  12/11,13,27/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-0-8)</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/11,31/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-11)</t>
+  </si>
+  <si>
+    <t>UT(1-0-5)</t>
+  </si>
+  <si>
+    <t>8/9,22/2023</t>
+  </si>
+  <si>
+    <t>UT(1-0-15)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/13,17,20,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,6 +1511,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,9 +1552,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,7 +2001,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2044,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2108,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2168,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2234,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2297,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2395,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2454,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2519,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2562,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2637,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2823,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2889,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2947,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +3013,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3069,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3144,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3187,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3253,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3309,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3359,7 +3407,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,7 +3470,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K470" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3861,12 +3909,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K470"/>
+  <dimension ref="A2:K477"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A431" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A452" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K439" sqref="K439"/>
+      <selection pane="bottomLeft" activeCell="F464" sqref="F464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,62 +3936,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3969,18 +4017,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4027,7 +4075,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.334999999999795</v>
+        <v>4.4519999999997566</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4037,7 +4085,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>248.43600000000001</v>
+        <v>253.43600000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13798,7 +13846,7 @@
       <c r="H439" s="39"/>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="68">
+      <c r="K439" s="56">
         <v>44641</v>
       </c>
     </row>
@@ -14289,11 +14337,15 @@
       <c r="A462" s="40">
         <v>45107</v>
       </c>
-      <c r="B462" s="20"/>
+      <c r="B462" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="C462" s="13">
         <v>1.25</v>
       </c>
-      <c r="D462" s="39"/>
+      <c r="D462" s="39">
+        <v>1</v>
+      </c>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
       <c r="G462" s="13">
@@ -14303,37 +14355,43 @@
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20"/>
+      <c r="K462" s="56">
+        <v>45096</v>
+      </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B463" s="20"/>
-      <c r="C463" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D463" s="39"/>
+      <c r="A463" s="40"/>
+      <c r="B463" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C463" s="13"/>
+      <c r="D463" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G463" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
+      <c r="K463" s="56"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B464" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B464" s="20" t="s">
+        <v>353</v>
+      </c>
       <c r="C464" s="13">
         <v>1.25</v>
       </c>
-      <c r="D464" s="39"/>
+      <c r="D464" s="39">
+        <v>4</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
       <c r="G464" s="13">
@@ -14343,15 +14401,19 @@
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="20" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B465" s="20"/>
+      <c r="A465" s="40"/>
+      <c r="B465" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="C465" s="13"/>
-      <c r="D465" s="39"/>
+      <c r="D465" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
       <c r="G465" s="13" t="str">
@@ -14365,52 +14427,68 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
-      <c r="D466" s="39"/>
+        <v>45169</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="39">
+        <v>2</v>
+      </c>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20"/>
+      <c r="K466" s="20" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B467" s="15"/>
-      <c r="C467" s="42"/>
-      <c r="D467" s="43"/>
+      <c r="A467" s="40"/>
+      <c r="B467" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C467" s="13"/>
+      <c r="D467" s="39">
+        <v>1.0309999999999999</v>
+      </c>
       <c r="E467" s="9"/>
-      <c r="F467" s="15"/>
-      <c r="G467" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H467" s="43"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="39"/>
       <c r="I467" s="9"/>
-      <c r="J467" s="12"/>
-      <c r="K467" s="15"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="39"/>
+        <v>45199</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="39">
+        <v>1.01</v>
+      </c>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
@@ -14419,29 +14497,37 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
+        <v>45230</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D469" s="39"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
+      <c r="K469" s="20" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B470" s="20"/>
+      <c r="A470" s="40"/>
+      <c r="B470" s="20" t="s">
+        <v>349</v>
+      </c>
       <c r="C470" s="13"/>
-      <c r="D470" s="39"/>
+      <c r="D470" s="39">
+        <v>1.0229999999999999</v>
+      </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
       <c r="G470" s="13" t="str">
@@ -14452,6 +14538,150 @@
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B471" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D471" s="43"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="15"/>
+      <c r="G471" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H471" s="43"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="12"/>
+      <c r="K471" s="57">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="40"/>
+      <c r="B472" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C472" s="13"/>
+      <c r="D472" s="39">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="39"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="56"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B473" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D473" s="39">
+        <v>5</v>
+      </c>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="40"/>
+      <c r="B474" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C474" s="13"/>
+      <c r="D474" s="39">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="39"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="39"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14517,17 +14747,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -14565,18 +14795,14 @@
       <c r="B3" s="11">
         <v>83.186000000000007</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.13300000000000001</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -14615,17 +14841,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>265.77099999999979</v>
+        <v>257.88799999999975</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CEO/MADRAZO, ALLAN PAUL.xlsx
+++ b/REGULAR/CEO/MADRAZO, ALLAN PAUL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="366">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1105,6 +1105,33 @@
   </si>
   <si>
     <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>5/2,17,23,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-6)</t>
+  </si>
+  <si>
+    <t>4/4,17,19/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>UT(0-5-1)</t>
+  </si>
+  <si>
+    <t>2/13,14,20,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>1/3,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2028,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2071,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2135,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2195,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2261,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2324,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2422,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2481,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2546,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2589,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2664,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2850,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2916,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2974,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3040,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3096,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3144,7 +3171,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3214,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3280,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3336,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3434,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,7 +3497,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3536,7 +3563,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K482" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3909,12 +3936,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K477"/>
+  <dimension ref="A2:K482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A452" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F464" sqref="F464"/>
+      <selection pane="bottomLeft" activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,7 +4102,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.4519999999997566</v>
+        <v>-10.872000000000313</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14237,11 +14264,15 @@
       <c r="A457" s="40">
         <v>44957</v>
       </c>
-      <c r="B457" s="20"/>
+      <c r="B457" s="20" t="s">
+        <v>329</v>
+      </c>
       <c r="C457" s="13">
         <v>1.25</v>
       </c>
-      <c r="D457" s="39"/>
+      <c r="D457" s="39">
+        <v>2</v>
+      </c>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
       <c r="G457" s="13">
@@ -14251,22 +14282,24 @@
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="20"/>
+      <c r="K457" s="20" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B458" s="20"/>
-      <c r="C458" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D458" s="39"/>
+      <c r="A458" s="40"/>
+      <c r="B458" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
@@ -14275,13 +14308,17 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B459" s="20"/>
+        <v>44985</v>
+      </c>
+      <c r="B459" s="20" t="s">
+        <v>353</v>
+      </c>
       <c r="C459" s="13">
         <v>1.25</v>
       </c>
-      <c r="D459" s="39"/>
+      <c r="D459" s="39">
+        <v>4</v>
+      </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="13">
@@ -14291,22 +14328,24 @@
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
+      <c r="K459" s="20" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B460" s="20"/>
-      <c r="C460" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D460" s="39"/>
+      <c r="A460" s="40"/>
+      <c r="B460" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C460" s="13"/>
+      <c r="D460" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E460" s="9"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G460" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
@@ -14315,13 +14354,17 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B461" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B461" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="C461" s="13">
         <v>1.25</v>
       </c>
-      <c r="D461" s="39"/>
+      <c r="D461" s="39">
+        <v>1</v>
+      </c>
       <c r="E461" s="9"/>
       <c r="F461" s="20"/>
       <c r="G461" s="13">
@@ -14331,181 +14374,181 @@
       <c r="H461" s="39"/>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
+      <c r="K461" s="56">
+        <v>44993</v>
+      </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="40">
-        <v>45107</v>
-      </c>
+      <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C462" s="13">
-        <v>1.25</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C462" s="13"/>
       <c r="D462" s="39">
-        <v>1</v>
+        <v>0.627</v>
       </c>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G462" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="56">
-        <v>45096</v>
-      </c>
+      <c r="K462" s="56"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="40"/>
+      <c r="A463" s="40">
+        <v>45046</v>
+      </c>
       <c r="B463" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C463" s="13"/>
+        <v>336</v>
+      </c>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D463" s="39">
-        <v>5.000000000000001E-2</v>
+        <v>3</v>
       </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="56"/>
+      <c r="K463" s="20" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="40">
-        <v>45138</v>
-      </c>
+      <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C464" s="13">
-        <v>1.25</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C464" s="13"/>
       <c r="D464" s="39">
-        <v>4</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G464" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H464" s="39"/>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20" t="s">
-        <v>354</v>
-      </c>
+      <c r="K464" s="20"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="40"/>
+      <c r="A465" s="40">
+        <v>45077</v>
+      </c>
       <c r="B465" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C465" s="13"/>
+        <v>353</v>
+      </c>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D465" s="39">
-        <v>0.53100000000000003</v>
+        <v>4</v>
       </c>
       <c r="E465" s="9"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H465" s="39"/>
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
-      <c r="K465" s="20"/>
+      <c r="K465" s="20" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="40">
-        <v>45169</v>
-      </c>
+      <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C466" s="13">
-        <v>1.25</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C466" s="13"/>
       <c r="D466" s="39">
-        <v>2</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G466" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="20" t="s">
-        <v>351</v>
-      </c>
+      <c r="K466" s="20"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="40"/>
+      <c r="A467" s="40">
+        <v>45107</v>
+      </c>
       <c r="B467" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C467" s="13"/>
+        <v>341</v>
+      </c>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D467" s="39">
-        <v>1.0309999999999999</v>
+        <v>1</v>
       </c>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20"/>
+      <c r="K467" s="56">
+        <v>45096</v>
+      </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C468" s="13">
-        <v>1.25</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C468" s="13"/>
       <c r="D468" s="39">
-        <v>1.01</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="20"/>
+      <c r="K468" s="56"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
       </c>
-      <c r="D469" s="39"/>
+      <c r="D469" s="39">
+        <v>4</v>
+      </c>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
       <c r="G469" s="13">
@@ -14516,17 +14559,17 @@
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="20" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39">
-        <v>1.0229999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
@@ -14541,36 +14584,38 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B471" s="15" t="s">
-        <v>345</v>
+        <v>45169</v>
+      </c>
+      <c r="B471" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
       </c>
-      <c r="D471" s="43"/>
+      <c r="D471" s="39">
+        <v>2</v>
+      </c>
       <c r="E471" s="9"/>
-      <c r="F471" s="15"/>
-      <c r="G471" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H471" s="43"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H471" s="39"/>
       <c r="I471" s="9"/>
-      <c r="J471" s="12"/>
-      <c r="K471" s="57">
-        <v>45258</v>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C472" s="13"/>
       <c r="D472" s="39">
-        <v>1.0169999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
@@ -14581,20 +14626,20 @@
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="56"/>
+      <c r="K472" s="20"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="C473" s="13">
         <v>1.25</v>
       </c>
       <c r="D473" s="39">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
@@ -14605,37 +14650,41 @@
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20" t="s">
-        <v>344</v>
-      </c>
+      <c r="K473" s="20"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="40"/>
+      <c r="A474" s="40">
+        <v>45230</v>
+      </c>
       <c r="B474" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C474" s="13"/>
-      <c r="D474" s="39">
-        <v>1.2210000000000001</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D474" s="39"/>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
+      <c r="K474" s="20" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="B475" s="20"/>
+      <c r="A475" s="40"/>
+      <c r="B475" s="20" t="s">
+        <v>349</v>
+      </c>
       <c r="C475" s="13"/>
-      <c r="D475" s="39"/>
+      <c r="D475" s="39">
+        <v>1.0229999999999999</v>
+      </c>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
       <c r="G475" s="13" t="str">
@@ -14649,29 +14698,37 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
-      <c r="D476" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B476" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D476" s="43"/>
       <c r="E476" s="9"/>
-      <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H476" s="39"/>
+      <c r="F476" s="15"/>
+      <c r="G476" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H476" s="43"/>
       <c r="I476" s="9"/>
-      <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
+      <c r="J476" s="12"/>
+      <c r="K476" s="57">
+        <v>45258</v>
+      </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B477" s="20"/>
+      <c r="A477" s="40"/>
+      <c r="B477" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C477" s="13"/>
-      <c r="D477" s="39"/>
+      <c r="D477" s="39">
+        <v>1.0169999999999999</v>
+      </c>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
       <c r="G477" s="13" t="str">
@@ -14681,7 +14738,107 @@
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
+      <c r="K477" s="56"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B478" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C478" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D478" s="39">
+        <v>5</v>
+      </c>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40"/>
+      <c r="B479" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14798,11 +14955,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -14851,7 +15008,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>257.88799999999975</v>
+        <v>242.56399999999968</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
